--- a/spliced/walkingToRunning/2023-03-30_14-22-52/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-52/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4330965876579284</v>
+        <v>0.7681222558021545</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5522730350494385</v>
+        <v>-0.0100534334778785</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6494118571281433</v>
+        <v>-2.038516759872437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5609283447265625</v>
+        <v>-0.3067295849323272</v>
       </c>
       <c r="B3" t="n">
-        <v>1.275720715522766</v>
+        <v>-1.010869383811951</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.33412766456604</v>
+        <v>-0.750079333782196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7681222558021545</v>
+        <v>-0.4047339260578155</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0100534334778785</v>
+        <v>-2.28332781791687</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.038516759872437</v>
+        <v>0.921320617198944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3067295849323272</v>
+        <v>-0.3051316738128662</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.010869383811951</v>
+        <v>1.929260492324829</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.750079333782196</v>
+        <v>-1.74610161781311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4047339260578155</v>
+        <v>3.213436841964722</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.28332781791687</v>
+        <v>1.757220268249511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.921320617198944</v>
+        <v>-4.128565788269043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3051316738128662</v>
+        <v>-2.472412109375</v>
       </c>
       <c r="B7" t="n">
-        <v>1.929260492324829</v>
+        <v>-2.355233192443848</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.74610161781311</v>
+        <v>1.659016251564026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.213436841964722</v>
+        <v>-5.059939384460449</v>
       </c>
       <c r="B8" t="n">
-        <v>1.757220268249511</v>
+        <v>-0.0345545150339603</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.128565788269043</v>
+        <v>1.632384657859802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.472412109375</v>
+        <v>-4.271111488342285</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.355233192443848</v>
+        <v>6.537594318389893</v>
       </c>
       <c r="C9" t="n">
-        <v>1.659016251564026</v>
+        <v>0.8408931493759155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.059939384460449</v>
+        <v>0.7947538495063782</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0345545150339603</v>
+        <v>-4.166182518005371</v>
       </c>
       <c r="C10" t="n">
-        <v>1.632384657859802</v>
+        <v>-1.592170834541321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.271111488342285</v>
+        <v>4.600943565368652</v>
       </c>
       <c r="B11" t="n">
-        <v>6.537594318389893</v>
+        <v>-7.544669151306152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8408931493759155</v>
+        <v>-3.569834232330322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7947538495063782</v>
+        <v>4.194012641906738</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.166182518005371</v>
+        <v>4.047538757324219</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.592170834541321</v>
+        <v>-7.187472343444824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.600943565368652</v>
+        <v>-5.213337898254395</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.544669151306152</v>
+        <v>-1.143494844436646</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.569834232330322</v>
+        <v>4.552274703979492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.194012641906738</v>
+        <v>-6.584865570068359</v>
       </c>
       <c r="B14" t="n">
-        <v>4.047538757324219</v>
+        <v>3.639542579650879</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.187472343444824</v>
+        <v>3.124820232391357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.213337898254395</v>
+        <v>0.5002082586288452</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.143494844436646</v>
+        <v>12.75873851776123</v>
       </c>
       <c r="C15" t="n">
-        <v>4.552274703979492</v>
+        <v>-0.6872287392616272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.584865570068359</v>
+        <v>-0.09793774783611291</v>
       </c>
       <c r="B16" t="n">
-        <v>3.639542579650879</v>
+        <v>-2.606635570526123</v>
       </c>
       <c r="C16" t="n">
-        <v>3.124820232391357</v>
+        <v>1.64676570892334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5002082586288452</v>
+        <v>7.020159244537354</v>
       </c>
       <c r="B17" t="n">
-        <v>12.75873851776123</v>
+        <v>-8.503939628601074</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6872287392616272</v>
+        <v>-4.922720432281494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.09793774783611291</v>
+        <v>4.105595588684082</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.606635570526123</v>
+        <v>-6.451707363128662</v>
       </c>
       <c r="C18" t="n">
-        <v>1.64676570892334</v>
+        <v>-2.353302240371704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.020159244537354</v>
+        <v>-1.717672348022461</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.503939628601074</v>
+        <v>1.564407467842102</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.922720432281494</v>
+        <v>1.324523210525513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.105595588684082</v>
+        <v>-12.60414218902588</v>
       </c>
       <c r="B20" t="n">
-        <v>-6.451707363128662</v>
+        <v>-15.56717586517334</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.353302240371704</v>
+        <v>2.47767186164856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.717672348022461</v>
+        <v>7.210841655731201</v>
       </c>
       <c r="B21" t="n">
-        <v>1.564407467842102</v>
+        <v>-12.07630348205566</v>
       </c>
       <c r="C21" t="n">
-        <v>1.324523210525513</v>
+        <v>8.885769844055176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.924999475479126</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-10.15509986877441</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8653942346572876</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.971939086914063</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14.02054500579834</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.391685962677002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.465487957000732</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.488490343093872</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.172791004180908</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-6.064484119415283</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.030177354812622</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.91339921951294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.608199417591095</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.21864986419678</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.169827461242676</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2609232068061828</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.39666223526001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.653707027435303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6.485929012298584</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.756554484367371</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.664892196655273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.498893618583679</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.116081237792969</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.421479225158691</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.8995492458343506</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.140432238578796</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6262423396110535</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-11.36417484283447</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.00677871704102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.598630428314209</v>
       </c>
     </row>
   </sheetData>
